--- a/data/transfers/transfers_unsh.xlsx
+++ b/data/transfers/transfers_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_13.04.2022\transfers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_20.04.2022\transfers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE91C05E-83BD-4105-830E-CE15531DB631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DA4AEE-4D5D-4CD7-AEE5-E9B3F466C379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Отбор:</t>
   </si>
@@ -56,79 +56,103 @@
     <t>Трансфер</t>
   </si>
   <si>
+    <t>37127 Трансфер LM (собств. разр.) Ankylos X D=4.5 L=14, слепочный, для открытой ложки с позиционером V.1</t>
+  </si>
+  <si>
+    <t>37031 Трансфер LM (копия оригинала) Implantium D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. DPU4511HL) V.2</t>
+  </si>
+  <si>
+    <t>37031 Трансфер LM (копия оригинала) Implantium D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. DPU4511HL) V.1</t>
+  </si>
+  <si>
+    <t>37131 Трансфер LM (собств. разр.) Nobel Active RP (4.5) D=5 L=14, слепочный, для открытой ложки с позиционером V.1</t>
+  </si>
+  <si>
+    <t>37126 Трансфер LM (собств. разр.) Osstem Implant Mini (3.5) D=4 L=11, слепочный, для открытой ложки с позиционером V.1</t>
+  </si>
+  <si>
+    <t>370311опт Трансфер LM (копия оригинала) Implantium D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. DPU4511HL) V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.</t>
+  </si>
+  <si>
+    <t>37023 Трансфер LM (копия оригинала) Nobel Replace Select 4.3 D=4.3 L=9, слепочный, для открытой ложки с позиционером (арт. 33539) V.1</t>
+  </si>
+  <si>
+    <t>37030уп Трансфер LM (копия оригинала) Implantium D=4.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU4515HL) V.1 / 1 ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>37000уп Трансфер LM (копия оригинала) MegaGen AnyRidge D=4 L=12 для открытой ложки с позиционером (арт. AANIPH4012T) V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>37000опт Трансфер LM (копия оригинала) MegaGen AnyRidge D=4 L=12, слепочный, для открытой ложки с позиционером (арт. AANIPH4012T) V.1 / ВКЛ. 1 ВИНТ, И</t>
+  </si>
+  <si>
+    <t>37135 Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=11, слепочный, для открытой ложки с позиционером V.1</t>
+  </si>
+  <si>
+    <t>47033 Трансфер LM (копия оригинала) Implantium Multi-Unit 4.5 D=4.5 L=9, слепочный, для открытой ложки без позиционера (арт. SPU45BL) V.1</t>
+  </si>
+  <si>
+    <t>37022 Трансфер LM (собств. разр.) Nobel Replace Select 3.5 D=3.5 L=9, слепочный, для открытой ложки с позиционером V.2</t>
+  </si>
+  <si>
+    <t>47108 Трансфер LM (копия оригинала) Anthogyr Axiom D=5 L=10, слепочный, для открытой ложки с позиционером (арт. OPPU100) V.1</t>
+  </si>
+  <si>
+    <t>47050 Трансфер LM (копия оригинала) Xive 3.8 D=3.8 L=15, слепочный, для открытой ложки с позиционером (арт. 46-1642) V.1</t>
+  </si>
+  <si>
+    <t>47105 Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit (отв. Dentium) / (отв. Megagen) / (отв. Nobel) / (отв. Osstem) D=4.8 L=10 для открытой ложки V.</t>
+  </si>
+  <si>
+    <t>37124уп Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 L=11, слепочный, для открытой ложки с позиционером V.1 / 1 ВИНТ, В БЛИС</t>
+  </si>
+  <si>
+    <t>37135опт Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=11 для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>37133уп Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=5 L=11 для открытой ложки с позиционером V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>37007 Трансфер LM (копия оригинала) Alpha Bio Internal D=5.5 L=12, слепочный, для открытой ложки с позиционером (арт. HLTO 5061) V.1</t>
+  </si>
+  <si>
+    <t>37028 Трансфер LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. GSPIS4511) V.1</t>
+  </si>
+  <si>
+    <t>47049 Трансфер LM (копия оригинала) Xive 3.4 D=3.4 L=15, слепочный, для открытой ложки с позиционером (арт. 46-1632) V.1</t>
+  </si>
+  <si>
+    <t>37124опт Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 L=11, слепочный, для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ,</t>
+  </si>
+  <si>
+    <t>37024 Трансфер LM (копия оригинала) Astra Tech 3.5/4.0 D=4.6 L=19, слепочный, для открытой ложки с позиционером (арт. 24948) V.1</t>
+  </si>
+  <si>
+    <t>37033 Трансфер LM (копия оригинала) Ankylos X D=7 L=19.5, слепочный, для открытой ложки с позиционером (арт. 3104 7042) V.2</t>
+  </si>
+  <si>
+    <t>37012 Трансфер LM (копия оригинала) Ankylos X D=7 L=14.5, слепочный, для открытой ложки с позиционером (арт. 3104 7040) V.2</t>
+  </si>
+  <si>
+    <t>37125опт Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 L=15, слепочный, для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ,</t>
+  </si>
+  <si>
+    <t>47108опт Трансфер LM (копия оригинала) Anthogyr Axiom D=5 L=10, слепочный, для открытой ложки с позиционером (арт. OPPU100) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.Р</t>
+  </si>
+  <si>
+    <t>47078 Трансфер LM (копия оригинала) Implantium D=6.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU6515HL) V.1</t>
+  </si>
+  <si>
+    <t>37128опт Трансфер LM (собств. разр.) Osstem Implant Mini (3.5) D=5 L=15, слепочный, для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>47077 Трансфер LM (копия оригинала) Implantium D=5.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU5515HL) V.1</t>
+  </si>
+  <si>
     <t>37130 Трансфер LM (собств. разр.) Nobel Active NP (3.5) D=5 L=14, слепочный, для открытой ложки с позиционером V.1</t>
   </si>
   <si>
-    <t>37031 Трансфер LM (копия оригинала) Implantium D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. DPU4511HL) V.1</t>
-  </si>
-  <si>
-    <t>37031 Трансфер LM (копия оригинала) Implantium D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. DPU4511HL) V.2</t>
-  </si>
-  <si>
-    <t>370311опт Трансфер LM (копия оригинала) Implantium D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. DPU4511HL) V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.</t>
-  </si>
-  <si>
-    <t>37030уп Трансфер LM (копия оригинала) Implantium D=4.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU4515HL) V.1 / 1 ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>37000уп Трансфер LM (копия оригинала) MegaGen AnyRidge D=4 L=12 для открытой ложки с позиционером (арт. AANIPH4012T) V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>37000опт Трансфер LM (копия оригинала) MegaGen AnyRidge D=4 L=12, слепочный, для открытой ложки с позиционером (арт. AANIPH4012T) V.1 / ВКЛ. 1 ВИНТ, И</t>
-  </si>
-  <si>
-    <t>37135 Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=11, слепочный, для открытой ложки с позиционером V.1</t>
-  </si>
-  <si>
-    <t>47033 Трансфер LM (копия оригинала) Implantium Multi-Unit 4.5 D=4.5 L=9, слепочный, для открытой ложки без позиционера (арт. SPU45BL) V.1</t>
-  </si>
-  <si>
-    <t>47105 Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit (отв. Dentium) / (отв. Megagen) / (отв. Nobel) / (отв. Osstem) D=4.8 L=10 для открытой ложки V.</t>
-  </si>
-  <si>
-    <t>37028 Трансфер LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. GSPIS4511) V.1</t>
-  </si>
-  <si>
-    <t>37126уп Трансфер LM (собств. разр.) Osstem Implant Mini (3.5) D=4 L=11, слепочный, для открытой ложки с позиционером V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>37024 Трансфер LM (копия оригинала) Astra Tech 3.5/4.0 D=4.6 L=19, слепочный, для открытой ложки с позиционером (арт. 24948) V.1</t>
-  </si>
-  <si>
-    <t>37133уп Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=5 L=11 для открытой ложки с позиционером V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>37012 Трансфер LM (копия оригинала) Ankylos X D=7 L=14.5, слепочный, для открытой ложки с позиционером (арт. 3104 7040) V.2</t>
-  </si>
-  <si>
-    <t>37033 Трансфер LM (копия оригинала) Ankylos X D=7 L=19.5, слепочный, для открытой ложки с позиционером (арт. 3104 7042) V.2</t>
-  </si>
-  <si>
-    <t>47108опт Трансфер LM (копия оригинала) Anthogyr Axiom D=5 L=10, слепочный, для открытой ложки с позиционером (арт. OPPU100) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.Р</t>
-  </si>
-  <si>
-    <t>37030 Трансфер LM (копия оригинала) Implantium D=4.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU4515HL) V.1</t>
-  </si>
-  <si>
-    <t>37124опт Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 L=11, слепочный, для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ,</t>
-  </si>
-  <si>
-    <t>37135опт Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=11 для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>37133опт Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=5 L=11 для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>37125опт Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 L=15, слепочный, для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ,</t>
-  </si>
-  <si>
     <t>37006уп Трансфер LM (копия оригинала) Alpha Bio Internal L=14, слепочный, для закрытой ложки с позиционером (арт. HLT 5060) V.1 / 1 ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>47078 Трансфер LM (копия оригинала) Implantium D=6.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU6515HL) V.1</t>
-  </si>
-  <si>
-    <t>47077 Трансфер LM (копия оригинала) Implantium D=5.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU5515HL) V.1</t>
   </si>
 </sst>
 </file>
@@ -605,11 +629,9 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -621,7 +643,7 @@
     <col min="6" max="6" width="20.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -681,15 +703,15 @@
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15">
-        <v>422</v>
+        <v>470</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="4">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>182</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -699,13 +721,13 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -715,10 +737,12 @@
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E8" s="17"/>
-      <c r="F8" s="7"/>
+      <c r="F8" s="6">
+        <v>50</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="6">
         <v>20</v>
@@ -731,12 +755,10 @@
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E9" s="17"/>
-      <c r="F9" s="6">
-        <v>50</v>
-      </c>
+      <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="6">
         <v>20</v>
@@ -749,13 +771,13 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -765,13 +787,13 @@
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -781,13 +803,13 @@
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="17">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -845,13 +867,13 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -864,12 +886,10 @@
         <v>10</v>
       </c>
       <c r="E17" s="17"/>
-      <c r="F17" s="6">
-        <v>5</v>
-      </c>
+      <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -879,13 +899,13 @@
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -895,15 +915,13 @@
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="E19" s="17"/>
-      <c r="F19" s="6">
-        <v>135</v>
-      </c>
+      <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -913,13 +931,13 @@
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="17">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="6">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -929,13 +947,13 @@
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -945,13 +963,13 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="17">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -961,13 +979,13 @@
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="17">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -977,15 +995,13 @@
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="E24" s="17"/>
-      <c r="F24" s="6">
-        <v>50</v>
-      </c>
+      <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -995,13 +1011,13 @@
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1011,13 +1027,15 @@
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E26" s="17"/>
-      <c r="F26" s="7"/>
+      <c r="F26" s="6">
+        <v>1</v>
+      </c>
       <c r="G26" s="7"/>
       <c r="H26" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1027,13 +1045,15 @@
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E27" s="17"/>
-      <c r="F27" s="7"/>
+      <c r="F27" s="6">
+        <v>5</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="H27" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1043,13 +1063,13 @@
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1059,13 +1079,13 @@
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1075,13 +1095,15 @@
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="17">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="E30" s="17"/>
-      <c r="F30" s="7"/>
+      <c r="F30" s="6">
+        <v>135</v>
+      </c>
       <c r="G30" s="7"/>
       <c r="H30" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1091,35 +1113,179 @@
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="17">
+        <v>3</v>
+      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17">
+        <v>2</v>
+      </c>
+      <c r="E33" s="17"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
+      <c r="E34" s="17"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="17">
+        <v>1</v>
+      </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="17">
+        <v>1</v>
+      </c>
+      <c r="E36" s="17"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="17">
+        <v>1</v>
+      </c>
+      <c r="E37" s="17"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="17">
+        <v>1</v>
+      </c>
+      <c r="E38" s="17"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="17">
+        <v>1</v>
+      </c>
+      <c r="E39" s="17"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="18">
-        <v>422</v>
-      </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="8">
-        <v>240</v>
-      </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="8">
-        <v>182</v>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="18">
+        <v>470</v>
+      </c>
+      <c r="E40" s="18"/>
+      <c r="F40" s="8">
+        <v>191</v>
+      </c>
+      <c r="G40" s="9"/>
+      <c r="H40" s="8">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="75">
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:E35"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="A31:C31"/>

--- a/data/transfers/transfers_unsh.xlsx
+++ b/data/transfers/transfers_unsh.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_20.04.2022\transfers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_04.05.2022\transfers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DA4AEE-4D5D-4CD7-AEE5-E9B3F466C379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE5D2AB-C99F-4608-B726-04D88C1A18BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-195" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Отбор:</t>
   </si>
@@ -56,7 +56,7 @@
     <t>Трансфер</t>
   </si>
   <si>
-    <t>37127 Трансфер LM (собств. разр.) Ankylos X D=4.5 L=14, слепочный, для открытой ложки с позиционером V.1</t>
+    <t>37030уп Трансфер LM (копия оригинала) Implantium D=4.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU4515HL) V.1 / 1 ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
     <t>37031 Трансфер LM (копия оригинала) Implantium D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. DPU4511HL) V.2</t>
@@ -65,94 +65,79 @@
     <t>37031 Трансфер LM (копия оригинала) Implantium D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. DPU4511HL) V.1</t>
   </si>
   <si>
-    <t>37131 Трансфер LM (собств. разр.) Nobel Active RP (4.5) D=5 L=14, слепочный, для открытой ложки с позиционером V.1</t>
-  </si>
-  <si>
-    <t>37126 Трансфер LM (собств. разр.) Osstem Implant Mini (3.5) D=4 L=11, слепочный, для открытой ложки с позиционером V.1</t>
-  </si>
-  <si>
     <t>370311опт Трансфер LM (копия оригинала) Implantium D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. DPU4511HL) V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.</t>
   </si>
   <si>
-    <t>37023 Трансфер LM (копия оригинала) Nobel Replace Select 4.3 D=4.3 L=9, слепочный, для открытой ложки с позиционером (арт. 33539) V.1</t>
-  </si>
-  <si>
-    <t>37030уп Трансфер LM (копия оригинала) Implantium D=4.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU4515HL) V.1 / 1 ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
     <t>37000уп Трансфер LM (копия оригинала) MegaGen AnyRidge D=4 L=12 для открытой ложки с позиционером (арт. AANIPH4012T) V.1 / 1 ВИНТ, УПАК</t>
   </si>
   <si>
+    <t>37135 Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=11, слепочный, для открытой ложки с позиционером V.1</t>
+  </si>
+  <si>
+    <t>47077уп Трансфер LM (копия оригинала) Implantium D=5.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU5515HL) V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>47105MOопт Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit (отв. Megagen) / (отв. Osstem) D=4.8 L=10 для открытой ложки V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/О</t>
+  </si>
+  <si>
+    <t>47033 Трансфер LM (копия оригинала) Implantium Multi-Unit 4.5 D=4.5 L=9, слепочный, для открытой ложки без позиционера (арт. SPU45BL) V.1</t>
+  </si>
+  <si>
     <t>37000опт Трансфер LM (копия оригинала) MegaGen AnyRidge D=4 L=12, слепочный, для открытой ложки с позиционером (арт. AANIPH4012T) V.1 / ВКЛ. 1 ВИНТ, И</t>
   </si>
   <si>
-    <t>37135 Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=11, слепочный, для открытой ложки с позиционером V.1</t>
-  </si>
-  <si>
-    <t>47033 Трансфер LM (копия оригинала) Implantium Multi-Unit 4.5 D=4.5 L=9, слепочный, для открытой ложки без позиционера (арт. SPU45BL) V.1</t>
-  </si>
-  <si>
-    <t>37022 Трансфер LM (собств. разр.) Nobel Replace Select 3.5 D=3.5 L=9, слепочный, для открытой ложки с позиционером V.2</t>
-  </si>
-  <si>
-    <t>47108 Трансфер LM (копия оригинала) Anthogyr Axiom D=5 L=10, слепочный, для открытой ложки с позиционером (арт. OPPU100) V.1</t>
+    <t>37030опт Трансфер LM (копия оригинала) Implantium D=4.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU4515HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.Р</t>
+  </si>
+  <si>
+    <t>37135опт Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=11 для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>37028 Трансфер LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. GSPIS4511) V.1</t>
+  </si>
+  <si>
+    <t>37132опт Трансфер LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=4 L=11, слепочный, для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ</t>
+  </si>
+  <si>
+    <t>37024 Трансфер LM (копия оригинала) Astra Tech 3.5/4.0 D=4.6 L=19, слепочный, для открытой ложки с позиционером (арт. 24948) V.1</t>
+  </si>
+  <si>
+    <t>37012 Трансфер LM (копия оригинала) Ankylos X D=7 L=14.5, слепочный, для открытой ложки с позиционером (арт. 3104 7040) V.2</t>
+  </si>
+  <si>
+    <t>37033 Трансфер LM (копия оригинала) Ankylos X D=7 L=19.5, слепочный, для открытой ложки с позиционером (арт. 3104 7042) V.2</t>
+  </si>
+  <si>
+    <t>37124опт Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 L=11, слепочный, для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ,</t>
+  </si>
+  <si>
+    <t>37133опт Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=5 L=11 для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>47077опт Трансфер LM (копия оригинала) Implantium D=5.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU5515HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.Р</t>
+  </si>
+  <si>
+    <t>47078опт Трансфер LM (копия оригинала) Implantium D=6.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU6515HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.Р</t>
+  </si>
+  <si>
+    <t>47108опт Трансфер LM (копия оригинала) Anthogyr Axiom D=5 L=10, слепочный, для открытой ложки с позиционером (арт. OPPU100) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.Р</t>
+  </si>
+  <si>
+    <t>37130 Трансфер LM (собств. разр.) Nobel Active NP (3.5) D=5 L=14, слепочный, для открытой ложки с позиционером V.1</t>
+  </si>
+  <si>
+    <t>47078 Трансфер LM (копия оригинала) Implantium D=6.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU6515HL) V.1</t>
   </si>
   <si>
     <t>47050 Трансфер LM (копия оригинала) Xive 3.8 D=3.8 L=15, слепочный, для открытой ложки с позиционером (арт. 46-1642) V.1</t>
   </si>
   <si>
-    <t>47105 Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit (отв. Dentium) / (отв. Megagen) / (отв. Nobel) / (отв. Osstem) D=4.8 L=10 для открытой ложки V.</t>
-  </si>
-  <si>
-    <t>37124уп Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 L=11, слепочный, для открытой ложки с позиционером V.1 / 1 ВИНТ, В БЛИС</t>
-  </si>
-  <si>
-    <t>37135опт Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=11 для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>37133уп Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=5 L=11 для открытой ложки с позиционером V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>37007 Трансфер LM (копия оригинала) Alpha Bio Internal D=5.5 L=12, слепочный, для открытой ложки с позиционером (арт. HLTO 5061) V.1</t>
-  </si>
-  <si>
-    <t>37028 Трансфер LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. GSPIS4511) V.1</t>
-  </si>
-  <si>
-    <t>47049 Трансфер LM (копия оригинала) Xive 3.4 D=3.4 L=15, слепочный, для открытой ложки с позиционером (арт. 46-1632) V.1</t>
-  </si>
-  <si>
-    <t>37124опт Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 L=11, слепочный, для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ,</t>
-  </si>
-  <si>
-    <t>37024 Трансфер LM (копия оригинала) Astra Tech 3.5/4.0 D=4.6 L=19, слепочный, для открытой ложки с позиционером (арт. 24948) V.1</t>
-  </si>
-  <si>
-    <t>37033 Трансфер LM (копия оригинала) Ankylos X D=7 L=19.5, слепочный, для открытой ложки с позиционером (арт. 3104 7042) V.2</t>
-  </si>
-  <si>
-    <t>37012 Трансфер LM (копия оригинала) Ankylos X D=7 L=14.5, слепочный, для открытой ложки с позиционером (арт. 3104 7040) V.2</t>
-  </si>
-  <si>
-    <t>37125опт Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 L=15, слепочный, для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ,</t>
-  </si>
-  <si>
-    <t>47108опт Трансфер LM (копия оригинала) Anthogyr Axiom D=5 L=10, слепочный, для открытой ложки с позиционером (арт. OPPU100) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.Р</t>
-  </si>
-  <si>
-    <t>47078 Трансфер LM (копия оригинала) Implantium D=6.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU6515HL) V.1</t>
-  </si>
-  <si>
-    <t>37128опт Трансфер LM (собств. разр.) Osstem Implant Mini (3.5) D=5 L=15, слепочный, для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+    <t>37126опт Трансфер LM (собств. разр.) Osstem Implant Mini (3.5) D=4 L=11, слепочный, для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>37006уп Трансфер LM (копия оригинала) Alpha Bio Internal L=14, слепочный, для закрытой ложки с позиционером (арт. HLT 5060) V.1 / 1 ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
     <t>47077 Трансфер LM (копия оригинала) Implantium D=5.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU5515HL) V.1</t>
-  </si>
-  <si>
-    <t>37130 Трансфер LM (собств. разр.) Nobel Active NP (3.5) D=5 L=14, слепочный, для открытой ложки с позиционером V.1</t>
-  </si>
-  <si>
-    <t>37006уп Трансфер LM (копия оригинала) Alpha Bio Internal L=14, слепочный, для закрытой ложки с позиционером (арт. HLT 5060) V.1 / 1 ВИНТ, В БЛИСТЕРЕ</t>
   </si>
 </sst>
 </file>
@@ -629,7 +614,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,7 +628,7 @@
     <col min="6" max="6" width="20.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -703,15 +688,15 @@
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15">
-        <v>470</v>
+        <v>381</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="4">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>279</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -721,13 +706,13 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="6">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -771,13 +756,13 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -787,13 +772,13 @@
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -803,13 +788,13 @@
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="17">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -883,13 +868,13 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -899,13 +884,13 @@
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -918,10 +903,12 @@
         <v>10</v>
       </c>
       <c r="E19" s="17"/>
-      <c r="F19" s="7"/>
+      <c r="F19" s="6">
+        <v>5</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="H19" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -931,13 +918,13 @@
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="17">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -947,13 +934,15 @@
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="E21" s="17"/>
-      <c r="F21" s="7"/>
+      <c r="F21" s="6">
+        <v>135</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -963,13 +952,13 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="17">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -979,13 +968,13 @@
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="17">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -995,13 +984,13 @@
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1011,13 +1000,13 @@
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1027,15 +1016,13 @@
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E26" s="17"/>
-      <c r="F26" s="6">
-        <v>1</v>
-      </c>
+      <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1045,15 +1032,13 @@
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E27" s="17"/>
-      <c r="F27" s="6">
-        <v>5</v>
-      </c>
+      <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1063,13 +1048,13 @@
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1079,13 +1064,13 @@
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1095,15 +1080,13 @@
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="17">
-        <v>139</v>
+        <v>1</v>
       </c>
       <c r="E30" s="17"/>
-      <c r="F30" s="6">
-        <v>135</v>
-      </c>
+      <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1113,13 +1096,13 @@
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1129,13 +1112,13 @@
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1145,13 +1128,13 @@
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1170,116 +1153,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="17">
-        <v>1</v>
-      </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="17">
-        <v>1</v>
-      </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="17">
-        <v>1</v>
-      </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="17">
-        <v>1</v>
-      </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="17">
-        <v>1</v>
-      </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
+    <row r="35" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="18">
-        <v>470</v>
-      </c>
-      <c r="E40" s="18"/>
-      <c r="F40" s="8">
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="18">
+        <v>381</v>
+      </c>
+      <c r="E35" s="18"/>
+      <c r="F35" s="8">
+        <v>190</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="8">
         <v>191</v>
       </c>
-      <c r="G40" s="9"/>
-      <c r="H40" s="8">
-        <v>279</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:E38"/>
+  <mergeCells count="65">
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="A34:C34"/>

--- a/data/transfers/transfers_unsh.xlsx
+++ b/data/transfers/transfers_unsh.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_04.05.2022\transfers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Desktop\data_12.07.2022\transfers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE5D2AB-C99F-4608-B726-04D88C1A18BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F1CC19-1630-4011-BB97-B419F7464204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-195" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Отбор:</t>
   </si>
@@ -56,88 +56,115 @@
     <t>Трансфер</t>
   </si>
   <si>
+    <t>47105 Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit (отв. Ankylos) / (отв. Dentium) / (отв. Megagen) / (отв. Nobel) / (отв. Osstem) D=4.8 L=10 для</t>
+  </si>
+  <si>
+    <t>37031 Трансфер LM (копия оригинала) Implantium D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. DPU4511HL) V.2</t>
+  </si>
+  <si>
+    <t>37031 Трансфер LM (копия оригинала) Implantium D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. DPU4511HL) V.1</t>
+  </si>
+  <si>
+    <t>37000опт Трансфер LM (копия оригинала) MegaGen AnyRidge D=4 L=12, слепочный, для открытой ложки с позиционером (арт. AANIPH4012T) V.1 / ВКЛ. 1 ВИНТ, И</t>
+  </si>
+  <si>
+    <t>37030 Трансфер LM (копия оригинала) Implantium D=4.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU4515HL) V.1</t>
+  </si>
+  <si>
+    <t>370311опт Трансфер LM (копия оригинала) Implantium D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. DPU4511HL) V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.</t>
+  </si>
+  <si>
+    <t>37001опт Трансфер LM (копия оригинала) MegaGen AnyRidge D=4 L=16, слепочный, для открытой ложки с позиционером (арт. AANIPH4016) V.1 / ВКЛ. 1 ВИНТ, ИМ</t>
+  </si>
+  <si>
+    <t>47077 Трансфер LM (копия оригинала) Implantium D=5.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU5515HL) V.1</t>
+  </si>
+  <si>
+    <t>47033 Трансфер LM (копия оригинала) Implantium Multi-Unit 4.5 D=4.5 L=9, слепочный, для открытой ложки без позиционера (арт. SPU45BL) V.1</t>
+  </si>
+  <si>
     <t>37030уп Трансфер LM (копия оригинала) Implantium D=4.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU4515HL) V.1 / 1 ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
-    <t>37031 Трансфер LM (копия оригинала) Implantium D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. DPU4511HL) V.2</t>
-  </si>
-  <si>
-    <t>37031 Трансфер LM (копия оригинала) Implantium D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. DPU4511HL) V.1</t>
-  </si>
-  <si>
-    <t>370311опт Трансфер LM (копия оригинала) Implantium D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. DPU4511HL) V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.</t>
-  </si>
-  <si>
     <t>37000уп Трансфер LM (копия оригинала) MegaGen AnyRidge D=4 L=12 для открытой ложки с позиционером (арт. AANIPH4012T) V.1 / 1 ВИНТ, УПАК</t>
   </si>
   <si>
     <t>37135 Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=11, слепочный, для открытой ложки с позиционером V.1</t>
   </si>
   <si>
-    <t>47077уп Трансфер LM (копия оригинала) Implantium D=5.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU5515HL) V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>47105MOопт Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit (отв. Megagen) / (отв. Osstem) D=4.8 L=10 для открытой ложки V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/О</t>
-  </si>
-  <si>
-    <t>47033 Трансфер LM (копия оригинала) Implantium Multi-Unit 4.5 D=4.5 L=9, слепочный, для открытой ложки без позиционера (арт. SPU45BL) V.1</t>
-  </si>
-  <si>
-    <t>37000опт Трансфер LM (копия оригинала) MegaGen AnyRidge D=4 L=12, слепочный, для открытой ложки с позиционером (арт. AANIPH4012T) V.1 / ВКЛ. 1 ВИНТ, И</t>
-  </si>
-  <si>
-    <t>37030опт Трансфер LM (копия оригинала) Implantium D=4.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU4515HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.Р</t>
-  </si>
-  <si>
-    <t>37135опт Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=11 для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+    <t>37132опт Трансфер LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=3.75 L=11 для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>37130 Трансфер LM (собств. разр.) Nobel Active NP (3.5) D=5 L=14, слепочный, для открытой ложки с позиционером V.1</t>
+  </si>
+  <si>
+    <t>37133уп Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=5 L=11 для открытой ложки с позиционером V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>37024 Трансфер LM (копия оригинала) Astra Tech 3.5/4.0 D=4.6 L=19, слепочный, для открытой ложки с позиционером (арт. 24948) V.1</t>
   </si>
   <si>
     <t>37028 Трансфер LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. GSPIS4511) V.1</t>
   </si>
   <si>
-    <t>37132опт Трансфер LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=4 L=11, слепочный, для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ</t>
-  </si>
-  <si>
-    <t>37024 Трансфер LM (копия оригинала) Astra Tech 3.5/4.0 D=4.6 L=19, слепочный, для открытой ложки с позиционером (арт. 24948) V.1</t>
+    <t>37131 Трансфер LM (собств. разр.) Nobel Active RP (4.5) D=5 L=14, слепочный, для открытой ложки с позиционером V.1</t>
+  </si>
+  <si>
+    <t>37134уп Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=5 L=15 для открытой ложки с позиционером V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>37023опт Трансфер LM (копия оригинала) Nobel Replace Select 4.3 D=4.3 L=9, слепочный, для открытой ложки с позиционером (арт. 33539) V.1 / ВКЛ. 1 ВИНТ</t>
+  </si>
+  <si>
+    <t>37023 Трансфер LM (копия оригинала) Nobel Replace Select 4.3 D=4.3 L=9, слепочный, для открытой ложки с позиционером (арт. 33539) V.1</t>
+  </si>
+  <si>
+    <t>37033 Трансфер LM (копия оригинала) Ankylos X D=7 L=19.5, слепочный, для открытой ложки с позиционером (арт. 3104 7042) V.2</t>
   </si>
   <si>
     <t>37012 Трансфер LM (копия оригинала) Ankylos X D=7 L=14.5, слепочный, для открытой ложки с позиционером (арт. 3104 7040) V.2</t>
   </si>
   <si>
-    <t>37033 Трансфер LM (копия оригинала) Ankylos X D=7 L=19.5, слепочный, для открытой ложки с позиционером (арт. 3104 7042) V.2</t>
-  </si>
-  <si>
-    <t>37124опт Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 L=11, слепочный, для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ,</t>
+    <t>37134опт Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=5 L=15 для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
     <t>37133опт Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=5 L=11 для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
-    <t>47077опт Трансфер LM (копия оригинала) Implantium D=5.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU5515HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.Р</t>
-  </si>
-  <si>
-    <t>47078опт Трансфер LM (копия оригинала) Implantium D=6.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU6515HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.Р</t>
-  </si>
-  <si>
-    <t>47108опт Трансфер LM (копия оригинала) Anthogyr Axiom D=5 L=10, слепочный, для открытой ложки с позиционером (арт. OPPU100) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.Р</t>
-  </si>
-  <si>
-    <t>37130 Трансфер LM (собств. разр.) Nobel Active NP (3.5) D=5 L=14, слепочный, для открытой ложки с позиционером V.1</t>
-  </si>
-  <si>
-    <t>47078 Трансфер LM (копия оригинала) Implantium D=6.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU6515HL) V.1</t>
-  </si>
-  <si>
-    <t>47050 Трансфер LM (копия оригинала) Xive 3.8 D=3.8 L=15, слепочный, для открытой ложки с позиционером (арт. 46-1642) V.1</t>
+    <t>37128опт Трансфер LM (собств. разр.) Osstem Implant Mini (3.5) D=5 L=15, слепочный, для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>37074 Трансфер LM (собств. разр.) Mis SP (3.75/4.2) D=5 L=11, слепочный, для открытой ложки с позиционером V.2</t>
+  </si>
+  <si>
+    <t>37128уп Трансфер LM (собств. разр.) Osstem Implant Mini (3.5) D=5 L=15 для открытой ложки с позиционером V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>37006опт Трансфер LM (копия оригинала) Alpha Bio Internal L=14, слепочный, для закрытой ложки с позиционером (арт. HLT 5060) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.</t>
   </si>
   <si>
     <t>37126опт Трансфер LM (собств. разр.) Osstem Implant Mini (3.5) D=4 L=11, слепочный, для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
+    <t>47103 Трансфер LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) D=4.5 L=13, слепочный, для закрытой ложки с позиционером (арт. RS5213) V.1</t>
+  </si>
+  <si>
+    <t>37131опт Трансфер LM (собств. разр.) Nobel Active RP (4.5) D=5 L=14, слепочный, для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>37127 Трансфер LM (собств. разр.) Ankylos X D=4.5 L=14, слепочный, для открытой ложки с позиционером V.1</t>
+  </si>
+  <si>
+    <t>37124 Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 L=11, слепочный, для открытой ложки с позиционером V.1</t>
+  </si>
+  <si>
+    <t>37132 Трансфер LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=3.75 L=11 для открытой ложки с позиционером V.1</t>
+  </si>
+  <si>
+    <t>47078 Трансфер LM (копия оригинала) Implantium D=6.5 L=15 для открытой ложки с позиционером (арт. DPU6515HL) V.1</t>
+  </si>
+  <si>
     <t>37006уп Трансфер LM (копия оригинала) Alpha Bio Internal L=14, слепочный, для закрытой ложки с позиционером (арт. HLT 5060) V.1 / 1 ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>47077 Трансфер LM (копия оригинала) Implantium D=5.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU5515HL) V.1</t>
   </si>
 </sst>
 </file>
@@ -614,7 +641,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,7 +655,7 @@
     <col min="6" max="6" width="20.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -688,15 +715,15 @@
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15">
-        <v>381</v>
+        <v>508</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="4">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>191</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -706,13 +733,13 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="6">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -722,7 +749,7 @@
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="6">
@@ -730,7 +757,7 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="6">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -756,13 +783,13 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="6">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -772,13 +799,15 @@
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="E11" s="17"/>
-      <c r="F11" s="7"/>
+      <c r="F11" s="6">
+        <v>50</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="6">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -788,13 +817,13 @@
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="17">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -804,13 +833,13 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -820,13 +849,13 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -868,13 +897,13 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -884,13 +913,13 @@
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -900,15 +929,13 @@
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="17"/>
-      <c r="F19" s="6">
-        <v>5</v>
-      </c>
+      <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -918,13 +945,13 @@
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -934,15 +961,13 @@
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17">
-        <v>139</v>
+        <v>5</v>
       </c>
       <c r="E21" s="17"/>
-      <c r="F21" s="6">
-        <v>135</v>
-      </c>
+      <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -952,13 +977,15 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="17">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="E22" s="17"/>
-      <c r="F22" s="7"/>
+      <c r="F22" s="6">
+        <v>135</v>
+      </c>
       <c r="G22" s="7"/>
       <c r="H22" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -968,13 +995,15 @@
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="17">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E23" s="17"/>
-      <c r="F23" s="7"/>
+      <c r="F23" s="6">
+        <v>5</v>
+      </c>
       <c r="G23" s="7"/>
       <c r="H23" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -984,13 +1013,13 @@
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1000,13 +1029,13 @@
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1016,13 +1045,13 @@
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1032,13 +1061,13 @@
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1048,13 +1077,13 @@
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1064,13 +1093,13 @@
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1080,13 +1109,13 @@
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1096,13 +1125,13 @@
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1112,13 +1141,13 @@
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1128,13 +1157,13 @@
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1144,35 +1173,197 @@
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="17">
+        <v>2</v>
+      </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="17">
+        <v>1</v>
+      </c>
+      <c r="E36" s="17"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="17">
+        <v>1</v>
+      </c>
+      <c r="E37" s="17"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="17">
+        <v>1</v>
+      </c>
+      <c r="E38" s="17"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="17">
+        <v>1</v>
+      </c>
+      <c r="E39" s="17"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="17">
+        <v>1</v>
+      </c>
+      <c r="E40" s="17"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="17">
+        <v>1</v>
+      </c>
+      <c r="E41" s="17"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="17">
+        <v>1</v>
+      </c>
+      <c r="E42" s="17"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="17">
+        <v>1</v>
+      </c>
+      <c r="E43" s="17"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="18">
-        <v>381</v>
-      </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="8">
-        <v>190</v>
-      </c>
-      <c r="G35" s="9"/>
-      <c r="H35" s="8">
-        <v>191</v>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="18">
+        <v>508</v>
+      </c>
+      <c r="E44" s="18"/>
+      <c r="F44" s="8">
+        <v>240</v>
+      </c>
+      <c r="G44" s="9"/>
+      <c r="H44" s="8">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="83">
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:E38"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="A34:C34"/>
